--- a/newRange/间隙/Lh/jx0.2Length19.2Lh处理.xlsx
+++ b/newRange/间隙/Lh/jx0.2Length19.2Lh处理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="18517" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,67 +52,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +72,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -147,16 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,10 +172,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,16 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,115 +202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +238,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +352,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,45 +393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,7 +426,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,153 +469,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,10 +647,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,15 +1003,15 @@
   <sheetPr/>
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A401"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="3" width="9.49166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1"/>
+    <col min="2" max="3" width="9.49557522123894" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6283185840708" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7522123893805" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7845,14 +7838,175 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0.1</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0.3</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0.6</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0.7</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>0.8</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1.1</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1.2</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1.3</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1.4</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1.5</v>
+      </c>
+      <c r="B15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1.6</v>
+      </c>
+      <c r="B16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.7</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.8</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1.9</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
